--- a/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
+++ b/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="I12">
         <f>SUM(G:G)</f>
-        <v>2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,10 +731,6 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -749,7 +745,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
@@ -765,7 +761,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
@@ -778,7 +774,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
@@ -789,56 +785,66 @@
       <c r="C27" s="1">
         <v>40801</v>
       </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>40802</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <f>-20+E28</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
+++ b/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">delphit </t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>KW 37</t>
+  </si>
+  <si>
+    <t>KW 38</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I31"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,11 +537,11 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E31" si="0">E9+D10</f>
+        <f t="shared" ref="E10:E36" si="0">E9+D10</f>
         <v>10.5</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F31" si="1">F9+D10</f>
+        <f t="shared" ref="F10:F36" si="1">F9+D10</f>
         <v>24</v>
       </c>
     </row>
@@ -572,7 +575,7 @@
       </c>
       <c r="I12">
         <f>SUM(G:G)</f>
-        <v>-7</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,33 +821,96 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="F31">
         <f t="shared" si="1"/>
         <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>40805</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>40806</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>40807</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>40808</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>40809</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <f>-20+E36</f>
+        <v>-18</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
+++ b/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="I12">
         <f>SUM(G:G)</f>
-        <v>-25</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,13 +861,16 @@
       <c r="C33" s="1">
         <v>40806</v>
       </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -876,11 +879,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
@@ -889,11 +892,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -902,15 +905,15 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <f>-20+E36</f>
-        <v>-18</v>
+        <v>-9</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
+++ b/trunk/Rechnungsverwaltung/delphit/delphit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">delphit </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>KW 38</t>
+  </si>
+  <si>
+    <t>KW 39</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +578,7 @@
       </c>
       <c r="I12">
         <f>SUM(G:G)</f>
-        <v>-16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,7 +860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>40806</v>
       </c>
@@ -873,7 +876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>40807</v>
       </c>
@@ -886,34 +889,71 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>40808</v>
       </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>40809</v>
       </c>
+      <c r="D36">
+        <v>6.5</v>
+      </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>28.5</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>71.5</v>
       </c>
       <c r="G36">
         <f>-20+E36</f>
-        <v>-9</v>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40812</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>40813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>40814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>40815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>40816</v>
       </c>
     </row>
   </sheetData>
